--- a/templates/dataplant/GEO/Growth_GEO_minimal.xlsx
+++ b/templates/dataplant/GEO/Growth_GEO_minimal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\SWATE_templates\templates\dataplant\GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B27B88C-DCC3-4F86-8024-CA74A08CDDCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EB6DAA-606D-4814-BEF9-717BD79F8956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{2D1671A6-E5E6-4E90-817E-C23847CD9BD1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{2D1671A6-E5E6-4E90-817E-C23847CD9BD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Growth" sheetId="1" r:id="rId1"/>
@@ -465,9 +465,6 @@
     <t>664a4204-5879-4227-8e73-3624957b58d9</t>
   </si>
   <si>
-    <t>1.0</t>
-  </si>
-  <si>
     <t>Template to describe the minimal information about the growth of a plant as well as sample collection and handling for submission to GEO</t>
   </si>
   <si>
@@ -496,6 +493,9 @@
   </si>
   <si>
     <t>EFO:0003789</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
   </si>
 </sst>
 </file>
@@ -1193,7 +1193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8916BF-D1BA-4E62-B448-EB2F6971FAFB}">
   <dimension ref="A1:ER15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1739,8 +1739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9588F95B-E0B9-4C24-B456-D720E0C41839}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1764,7 +1764,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1772,7 +1772,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1780,7 +1780,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1796,7 +1796,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1818,7 +1818,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1846,7 +1846,7 @@
         <v>71</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>28</v>
@@ -1857,10 +1857,10 @@
         <v>29</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1889,7 +1889,7 @@
         <v>32</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1897,7 +1897,7 @@
         <v>33</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1911,7 +1911,7 @@
         <v>35</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1937,7 +1937,7 @@
         <v>39</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">

--- a/templates/dataplant/GEO/Growth_GEO_minimal.xlsx
+++ b/templates/dataplant/GEO/Growth_GEO_minimal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\SWATE_templates\templates\dataplant\GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EB6DAA-606D-4814-BEF9-717BD79F8956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3475C7-666C-4776-8F9D-D927D3303DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{2D1671A6-E5E6-4E90-817E-C23847CD9BD1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{2D1671A6-E5E6-4E90-817E-C23847CD9BD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Growth" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="117">
   <si>
     <t>Source Name</t>
   </si>
@@ -161,9 +161,6 @@
   </si>
   <si>
     <t>user-specific</t>
-  </si>
-  <si>
-    <t>Z. mays</t>
   </si>
   <si>
     <t>Id</t>
@@ -787,8 +784,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A78356C9-302F-48B0-8883-64096E4E68DC}" name="annotationTableUnluckyVampirebat90" displayName="annotationTableUnluckyVampirebat90" ref="A1:W7" totalsRowShown="0">
-  <autoFilter ref="A1:W7" xr:uid="{A78356C9-302F-48B0-8883-64096E4E68DC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A78356C9-302F-48B0-8883-64096E4E68DC}" name="annotationTableUnluckyVampirebat90" displayName="annotationTableUnluckyVampirebat90" ref="A1:W2" totalsRowShown="0">
+  <autoFilter ref="A1:W2" xr:uid="{A78356C9-302F-48B0-8883-64096E4E68DC}"/>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{109E9A2A-74AF-4992-BC42-D1BBEEE95875}" name="Source Name"/>
     <tableColumn id="75" xr3:uid="{657F4F52-CB0F-43CD-BE98-BA4AA2147D39}" name="Protocol Type"/>
@@ -1193,7 +1190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8916BF-D1BA-4E62-B448-EB2F6971FAFB}">
   <dimension ref="A1:ER15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1355,13 +1352,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>69</v>
-      </c>
-      <c r="D1" t="s">
-        <v>70</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -1373,13 +1370,13 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" t="s">
         <v>74</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>75</v>
-      </c>
-      <c r="J1" t="s">
-        <v>76</v>
       </c>
       <c r="K1" t="s">
         <v>5</v>
@@ -1400,22 +1397,22 @@
         <v>10</v>
       </c>
       <c r="Q1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R1" t="s">
         <v>77</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>78</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>79</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>80</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>81</v>
-      </c>
-      <c r="V1" t="s">
-        <v>82</v>
       </c>
       <c r="W1" t="s">
         <v>11</v>
@@ -1423,13 +1420,13 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
         <v>71</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>72</v>
-      </c>
-      <c r="D2" t="s">
-        <v>73</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1442,28 +1439,16 @@
       <c r="S2" s="13"/>
       <c r="T2" s="13"/>
       <c r="U2" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V2" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W2" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
@@ -1472,25 +1457,19 @@
       <c r="S3" s="13"/>
       <c r="T3" s="13"/>
       <c r="U3" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V3" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W3" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>73</v>
-      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
@@ -1499,25 +1478,19 @@
       <c r="S4" s="13"/>
       <c r="T4" s="13"/>
       <c r="U4" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V4" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W4" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>73</v>
-      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
@@ -1526,25 +1499,19 @@
       <c r="S5" s="13"/>
       <c r="T5" s="13"/>
       <c r="U5" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V5" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W5" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>73</v>
-      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
@@ -1553,25 +1520,19 @@
       <c r="S6" s="13"/>
       <c r="T6" s="13"/>
       <c r="U6" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V6" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W6" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>73</v>
-      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
@@ -1580,13 +1541,13 @@
       <c r="S7" s="13"/>
       <c r="T7" s="13"/>
       <c r="U7" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V7" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W7" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -1597,19 +1558,19 @@
         <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -1620,111 +1581,111 @@
         <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1739,8 +1700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9588F95B-E0B9-4C24-B456-D720E0C41839}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1753,214 +1714,214 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="7"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="6"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="6"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="6"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="6"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B24" s="6"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B25" s="6"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B26" s="6"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B27" s="9"/>
     </row>
@@ -1999,40 +1960,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -2040,35 +2001,35 @@
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2076,71 +2037,71 @@
         <v>11</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>57</v>
-      </c>
       <c r="I3" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>85</v>
-      </c>
       <c r="E4" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I4" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2148,75 +2109,75 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>61</v>
-      </c>
       <c r="I5" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="K5" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2224,37 +2185,37 @@
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2262,37 +2223,37 @@
         <v>8</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2300,75 +2261,75 @@
         <v>4</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I9" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="J9" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>59</v>
-      </c>
       <c r="L9" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="H10" s="11" t="s">
-        <v>103</v>
-      </c>
       <c r="I10" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="J10" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>59</v>
-      </c>
       <c r="L10" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/templates/dataplant/GEO/Growth_GEO_minimal.xlsx
+++ b/templates/dataplant/GEO/Growth_GEO_minimal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\SWATE_templates\templates\dataplant\GEO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3475C7-666C-4776-8F9D-D927D3303DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C00E430-C233-47F4-92D5-DB381811323D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{2D1671A6-E5E6-4E90-817E-C23847CD9BD1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2D1671A6-E5E6-4E90-817E-C23847CD9BD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Growth" sheetId="1" r:id="rId1"/>
@@ -42,75 +42,75 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{F0F2DB4B-14E0-4444-A532-C47DC9AF55EA}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The unique identifier of this template. It will be auto generated.
-Reply:
+Antwort:
     id=664a4204-5879-4227-8e73-3624957b58d9</t>
       </text>
     </comment>
     <comment ref="A2" authorId="1" shapeId="0" xr:uid="{C970690B-1A26-4544-9E69-4675133B0D20}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate template.</t>
       </text>
     </comment>
     <comment ref="A3" authorId="2" shapeId="0" xr:uid="{F46795EE-DF61-4257-AA17-79A2D0559FD0}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The current version of this template in SemVer notation.</t>
       </text>
     </comment>
     <comment ref="A4" authorId="3" shapeId="0" xr:uid="{98E913A9-A7B3-482C-AFCD-9787EF37E2A4}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The description of this template. Use few sentences for succinctness.</t>
       </text>
     </comment>
     <comment ref="A5" authorId="4" shapeId="0" xr:uid="{723696DA-6C95-458A-8FF2-01FB4CD9B0C0}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
       </text>
     </comment>
     <comment ref="A6" authorId="5" shapeId="0" xr:uid="{68E95EA8-25AC-4B34-B521-7CE764C71B3A}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate annotation table in the workbook of the template's excel file.</t>
       </text>
     </comment>
     <comment ref="A7" authorId="6" shapeId="0" xr:uid="{9D4FD658-9BEA-497A-A440-14B80F4F836B}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms.</t>
       </text>
     </comment>
     <comment ref="A11" authorId="7" shapeId="0" xr:uid="{5053B0E9-9A66-4A2E-AFA4-86683ACE0DD5}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all tags associated with this template. Tags are realized as Terms.</t>
       </text>
     </comment>
     <comment ref="A15" authorId="8" shapeId="0" xr:uid="{2475F0BA-6525-49EA-A1AA-5EBBCB5A1AAA}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The author(s) of this template.</t>
       </text>
     </comment>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="119">
   <si>
     <t>Source Name</t>
   </si>
@@ -200,9 +200,6 @@
   </si>
   <si>
     <t>Tags</t>
-  </si>
-  <si>
-    <t>Plants</t>
   </si>
   <si>
     <t>Tags Term Accession Number</t>
@@ -493,6 +490,15 @@
   </si>
   <si>
     <t>1.0.0</t>
+  </si>
+  <si>
+    <t>Plant</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C14258</t>
+  </si>
+  <si>
+    <t>NCIT</t>
   </si>
 </sst>
 </file>
@@ -724,9 +730,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{D09CA6D9-E6C7-4433-8F48-8CA6F5BF0770}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -816,9 +822,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -856,7 +862,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -962,7 +968,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1104,7 +1110,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1190,175 +1196,175 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8916BF-D1BA-4E62-B448-EB2F6971FAFB}">
   <dimension ref="A1:ER15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="47.42578125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="47.44140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="26.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="40" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.140625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="38.28515625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="43.7109375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="31.109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="38.33203125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="43.6640625" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="26" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="31.28515625" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="38.42578125" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="31.28515625" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="38.42578125" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="25.42578125" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="37.85546875" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.33203125" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="38.44140625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="31.33203125" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="38.44140625" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.44140625" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="37.88671875" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="39.6640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="27" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="31.5703125" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="26.5703125" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="36.28515625" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="32.7109375" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="34.85546875" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="31.5546875" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="26.5546875" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="36.33203125" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="32.6640625" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="34.88671875" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="39.6640625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="31" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="33.85546875" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="38.85546875" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="33.42578125" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="55.140625" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="35.7109375" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="24.140625" hidden="1" customWidth="1"/>
-    <col min="49" max="49" width="33.140625" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="39.7109375" hidden="1" customWidth="1"/>
-    <col min="52" max="52" width="24.42578125" hidden="1" customWidth="1"/>
-    <col min="53" max="53" width="15.7109375" hidden="1" customWidth="1"/>
-    <col min="54" max="54" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="38.85546875" hidden="1" customWidth="1"/>
-    <col min="56" max="56" width="15.7109375" hidden="1" customWidth="1"/>
-    <col min="57" max="57" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="43.28515625" hidden="1" customWidth="1"/>
-    <col min="59" max="59" width="38.85546875" hidden="1" customWidth="1"/>
-    <col min="60" max="60" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="25.42578125" hidden="1" customWidth="1"/>
-    <col min="62" max="62" width="43.28515625" hidden="1" customWidth="1"/>
-    <col min="63" max="63" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="33.88671875" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="38.88671875" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="33.44140625" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="55.109375" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="35.6640625" hidden="1" customWidth="1"/>
+    <col min="47" max="47" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="24.109375" hidden="1" customWidth="1"/>
+    <col min="49" max="49" width="33.109375" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="39.6640625" hidden="1" customWidth="1"/>
+    <col min="52" max="52" width="24.44140625" hidden="1" customWidth="1"/>
+    <col min="53" max="53" width="15.6640625" hidden="1" customWidth="1"/>
+    <col min="54" max="54" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="38.88671875" hidden="1" customWidth="1"/>
+    <col min="56" max="56" width="15.6640625" hidden="1" customWidth="1"/>
+    <col min="57" max="57" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="43.33203125" hidden="1" customWidth="1"/>
+    <col min="59" max="59" width="38.88671875" hidden="1" customWidth="1"/>
+    <col min="60" max="60" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="25.44140625" hidden="1" customWidth="1"/>
+    <col min="62" max="62" width="43.33203125" hidden="1" customWidth="1"/>
+    <col min="63" max="63" width="39.6640625" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="27" hidden="1" customWidth="1"/>
-    <col min="65" max="65" width="25.42578125" hidden="1" customWidth="1"/>
-    <col min="66" max="66" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="31.5703125" hidden="1" customWidth="1"/>
+    <col min="65" max="65" width="25.44140625" hidden="1" customWidth="1"/>
+    <col min="66" max="66" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="31.5546875" hidden="1" customWidth="1"/>
     <col min="68" max="68" width="27" hidden="1" customWidth="1"/>
-    <col min="69" max="69" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="26.5703125" hidden="1" customWidth="1"/>
-    <col min="71" max="71" width="31.5703125" hidden="1" customWidth="1"/>
-    <col min="72" max="72" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="32.7109375" hidden="1" customWidth="1"/>
-    <col min="74" max="74" width="26.5703125" hidden="1" customWidth="1"/>
-    <col min="75" max="75" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="26.5546875" hidden="1" customWidth="1"/>
+    <col min="71" max="71" width="31.5546875" hidden="1" customWidth="1"/>
+    <col min="72" max="72" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="32.6640625" hidden="1" customWidth="1"/>
+    <col min="74" max="74" width="26.5546875" hidden="1" customWidth="1"/>
+    <col min="75" max="75" width="39.6640625" bestFit="1" customWidth="1"/>
     <col min="76" max="76" width="31" hidden="1" customWidth="1"/>
-    <col min="77" max="77" width="32.7109375" hidden="1" customWidth="1"/>
-    <col min="78" max="78" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="38.85546875" hidden="1" customWidth="1"/>
+    <col min="77" max="77" width="32.6640625" hidden="1" customWidth="1"/>
+    <col min="78" max="78" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="38.88671875" hidden="1" customWidth="1"/>
     <col min="80" max="80" width="31" hidden="1" customWidth="1"/>
-    <col min="81" max="81" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="55.140625" hidden="1" customWidth="1"/>
-    <col min="83" max="83" width="38.85546875" hidden="1" customWidth="1"/>
-    <col min="84" max="84" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="24.140625" hidden="1" customWidth="1"/>
-    <col min="86" max="86" width="55.140625" hidden="1" customWidth="1"/>
-    <col min="87" max="87" width="38.85546875" hidden="1" customWidth="1"/>
-    <col min="88" max="88" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="24.140625" hidden="1" customWidth="1"/>
-    <col min="90" max="90" width="55.140625" hidden="1" customWidth="1"/>
-    <col min="91" max="91" width="38.85546875" hidden="1" customWidth="1"/>
-    <col min="92" max="92" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="24.140625" hidden="1" customWidth="1"/>
-    <col min="94" max="94" width="55.140625" hidden="1" customWidth="1"/>
-    <col min="95" max="95" width="38.85546875" hidden="1" customWidth="1"/>
-    <col min="96" max="96" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="24.140625" hidden="1" customWidth="1"/>
-    <col min="98" max="98" width="55.140625" hidden="1" customWidth="1"/>
-    <col min="99" max="99" width="26.85546875" hidden="1" customWidth="1"/>
-    <col min="100" max="100" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="24.140625" hidden="1" customWidth="1"/>
-    <col min="102" max="102" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="103" max="103" width="15.7109375" hidden="1" customWidth="1"/>
-    <col min="104" max="104" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="106" max="106" width="15.7109375" hidden="1" customWidth="1"/>
-    <col min="107" max="107" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="109" max="109" width="15.7109375" hidden="1" customWidth="1"/>
-    <col min="110" max="110" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="112" max="112" width="15.7109375" hidden="1" customWidth="1"/>
-    <col min="113" max="113" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="115" max="115" width="15.7109375" hidden="1" customWidth="1"/>
-    <col min="116" max="116" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="118" max="118" width="15.7109375" hidden="1" customWidth="1"/>
-    <col min="119" max="119" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="121" max="121" width="15.7109375" hidden="1" customWidth="1"/>
-    <col min="122" max="122" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="124" max="124" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="125" max="125" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="30.28515625" hidden="1" customWidth="1"/>
-    <col min="127" max="127" width="37.28515625" hidden="1" customWidth="1"/>
-    <col min="128" max="128" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="130" max="130" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="131" max="131" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="133" max="133" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="134" max="134" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="136" max="136" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="137" max="137" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="139" max="139" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="140" max="140" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="142" max="142" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="143" max="143" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="55.109375" hidden="1" customWidth="1"/>
+    <col min="83" max="83" width="38.88671875" hidden="1" customWidth="1"/>
+    <col min="84" max="84" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="24.109375" hidden="1" customWidth="1"/>
+    <col min="86" max="86" width="55.109375" hidden="1" customWidth="1"/>
+    <col min="87" max="87" width="38.88671875" hidden="1" customWidth="1"/>
+    <col min="88" max="88" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="24.109375" hidden="1" customWidth="1"/>
+    <col min="90" max="90" width="55.109375" hidden="1" customWidth="1"/>
+    <col min="91" max="91" width="38.88671875" hidden="1" customWidth="1"/>
+    <col min="92" max="92" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="24.109375" hidden="1" customWidth="1"/>
+    <col min="94" max="94" width="55.109375" hidden="1" customWidth="1"/>
+    <col min="95" max="95" width="38.88671875" hidden="1" customWidth="1"/>
+    <col min="96" max="96" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="24.109375" hidden="1" customWidth="1"/>
+    <col min="98" max="98" width="55.109375" hidden="1" customWidth="1"/>
+    <col min="99" max="99" width="26.88671875" hidden="1" customWidth="1"/>
+    <col min="100" max="100" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="24.109375" hidden="1" customWidth="1"/>
+    <col min="102" max="102" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="103" max="103" width="15.6640625" hidden="1" customWidth="1"/>
+    <col min="104" max="104" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="106" max="106" width="15.6640625" hidden="1" customWidth="1"/>
+    <col min="107" max="107" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="109" max="109" width="15.6640625" hidden="1" customWidth="1"/>
+    <col min="110" max="110" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="112" max="112" width="15.6640625" hidden="1" customWidth="1"/>
+    <col min="113" max="113" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="115" max="115" width="15.6640625" hidden="1" customWidth="1"/>
+    <col min="116" max="116" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="118" max="118" width="15.6640625" hidden="1" customWidth="1"/>
+    <col min="119" max="119" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="121" max="121" width="15.6640625" hidden="1" customWidth="1"/>
+    <col min="122" max="122" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="124" max="124" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="125" max="125" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="30.33203125" hidden="1" customWidth="1"/>
+    <col min="127" max="127" width="37.33203125" hidden="1" customWidth="1"/>
+    <col min="128" max="128" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="130" max="130" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="131" max="131" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="133" max="133" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="134" max="134" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="136" max="136" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="137" max="137" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="139" max="139" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="140" max="140" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="142" max="142" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="143" max="143" width="39.6640625" bestFit="1" customWidth="1"/>
     <col min="144" max="144" width="34" hidden="1" customWidth="1"/>
     <col min="145" max="145" width="41" hidden="1" customWidth="1"/>
-    <col min="146" max="146" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="148" max="148" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="149" max="149" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="148" max="148" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="149" max="149" width="39.6640625" bestFit="1" customWidth="1"/>
     <col min="150" max="151" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>68</v>
-      </c>
-      <c r="D1" t="s">
-        <v>69</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -1370,13 +1376,13 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" t="s">
         <v>73</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>74</v>
-      </c>
-      <c r="J1" t="s">
-        <v>75</v>
       </c>
       <c r="K1" t="s">
         <v>5</v>
@@ -1397,36 +1403,36 @@
         <v>10</v>
       </c>
       <c r="Q1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R1" t="s">
         <v>76</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>77</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>78</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>79</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>80</v>
-      </c>
-      <c r="V1" t="s">
-        <v>81</v>
       </c>
       <c r="W1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
         <v>70</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>71</v>
-      </c>
-      <c r="D2" t="s">
-        <v>72</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1439,16 +1445,16 @@
       <c r="S2" s="13"/>
       <c r="T2" s="13"/>
       <c r="U2" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V2" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W2" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
@@ -1457,16 +1463,16 @@
       <c r="S3" s="13"/>
       <c r="T3" s="13"/>
       <c r="U3" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V3" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W3" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -1478,16 +1484,16 @@
       <c r="S4" s="13"/>
       <c r="T4" s="13"/>
       <c r="U4" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V4" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W4" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -1499,16 +1505,16 @@
       <c r="S5" s="13"/>
       <c r="T5" s="13"/>
       <c r="U5" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V5" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W5" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -1520,16 +1526,16 @@
       <c r="S6" s="13"/>
       <c r="T6" s="13"/>
       <c r="U6" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V6" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W6" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -1541,16 +1547,16 @@
       <c r="S7" s="13"/>
       <c r="T7" s="13"/>
       <c r="U7" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V7" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W7" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="F10" t="s">
         <v>13</v>
       </c>
@@ -1558,22 +1564,22 @@
         <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="F11" t="s">
         <v>13</v>
       </c>
@@ -1581,111 +1587,111 @@
         <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1700,73 +1706,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9588F95B-E0B9-4C24-B456-D720E0C41839}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -1774,29 +1780,29 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="7"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -1804,124 +1810,128 @@
         <v>22</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B18" s="6"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="6"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="6"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="6"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="6"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="6"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="6"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="B25" s="6"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="6"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B26" s="6"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="B27" s="9"/>
     </row>
@@ -1942,394 +1952,394 @@
       <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.5703125" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.5546875" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>56</v>
-      </c>
       <c r="I3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>84</v>
-      </c>
       <c r="E4" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="C6" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" s="11" t="s">
+      <c r="E6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J6" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>54</v>
-      </c>
       <c r="K6" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="11" t="s">
+      <c r="E10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="H9" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="I9" s="11" t="s">
+      <c r="H10" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J9" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="L10" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/templates/dataplant/GEO/Growth_GEO_minimal.xlsx
+++ b/templates/dataplant/GEO/Growth_GEO_minimal.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C00E430-C233-47F4-92D5-DB381811323D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AADF2AC-1130-4BA2-B341-5188051F07A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2D1671A6-E5E6-4E90-817E-C23847CD9BD1}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2D1671A6-E5E6-4E90-817E-C23847CD9BD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Growth" sheetId="1" r:id="rId1"/>
-    <sheet name="SwateTemplateMetadata" sheetId="9" r:id="rId2"/>
+    <sheet name="isa_template" sheetId="9" r:id="rId2"/>
     <sheet name="GEO_RNASEQ" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="119">
   <si>
     <t>Source Name</t>
   </si>
@@ -1704,10 +1704,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9588F95B-E0B9-4C24-B456-D720E0C41839}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1718,7 +1718,7 @@
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -1766,13 +1766,13 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -1796,66 +1796,57 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="7"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E12" s="8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="7"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>

--- a/templates/dataplant/GEO/Growth_GEO_minimal.xlsx
+++ b/templates/dataplant/GEO/Growth_GEO_minimal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AADF2AC-1130-4BA2-B341-5188051F07A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90040A9-F3A6-4276-BD52-0ECE6822AD96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2D1671A6-E5E6-4E90-817E-C23847CD9BD1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2D1671A6-E5E6-4E90-817E-C23847CD9BD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Growth" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="119">
   <si>
     <t>Source Name</t>
   </si>
@@ -486,19 +486,19 @@
     <t>MINSEQ</t>
   </si>
   <si>
-    <t>EFO:0003789</t>
-  </si>
-  <si>
     <t>1.0.0</t>
   </si>
   <si>
     <t>Plant</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C14258</t>
-  </si>
-  <si>
-    <t>NCIT</t>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>GO:0040007</t>
+  </si>
+  <si>
+    <t>NCIT:C14258</t>
   </si>
 </sst>
 </file>
@@ -1707,7 +1707,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1739,7 +1739,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1807,38 +1807,34 @@
         <v>26</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>113</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>70</v>
-      </c>
+      <c r="B14" s="6"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="8" t="s">
-        <v>118</v>
-      </c>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
